--- a/data/pedidos.xlsx
+++ b/data/pedidos.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -803,7 +803,7 @@
       <c r="C14" t="n">
         <v>1</v>
       </c>
-      <c r="D14" s="3" t="n">
+      <c r="D14" s="2" t="n">
         <v>45423</v>
       </c>
       <c r="E14" t="n">
@@ -819,6 +819,222 @@
         <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" s="2" t="n">
+        <v>45427</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" s="2" t="n">
+        <v>45428</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="n">
+        <v>5</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1</v>
+      </c>
+      <c r="D17" s="2" t="n">
+        <v>45428</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="n">
+        <v>1</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1</v>
+      </c>
+      <c r="D18" s="2" t="n">
+        <v>45428</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="n">
+        <v>3</v>
+      </c>
+      <c r="C19" t="n">
+        <v>3</v>
+      </c>
+      <c r="D19" s="2" t="n">
+        <v>45428</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="n">
+        <v>6</v>
+      </c>
+      <c r="C20" t="n">
+        <v>7</v>
+      </c>
+      <c r="D20" s="2" t="n">
+        <v>45428</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="n">
+        <v>6</v>
+      </c>
+      <c r="C21" t="n">
+        <v>7</v>
+      </c>
+      <c r="D21" s="2" t="n">
+        <v>45428</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="n">
+        <v>6</v>
+      </c>
+      <c r="C22" t="n">
+        <v>7</v>
+      </c>
+      <c r="D22" s="3" t="n">
+        <v>45428</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="b">
+        <v>1</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/pedidos.xlsx
+++ b/data/pedidos.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,30 +458,35 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>Descripcion</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Fecha Entrega</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Cantidad</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Coste</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Precio</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Pagado</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Fecha Recogida</t>
         </is>
@@ -497,20 +502,25 @@
       <c r="C2" t="n">
         <v>1</v>
       </c>
-      <c r="D2" s="2" t="n">
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="E2" s="2" t="n">
         <v>45422</v>
-      </c>
-      <c r="E2" t="n">
-        <v>3</v>
       </c>
       <c r="F2" t="n">
         <v>3</v>
       </c>
       <c r="G2" t="n">
+        <v>3</v>
+      </c>
+      <c r="H2" t="n">
         <v>4</v>
       </c>
-      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -522,18 +532,23 @@
       <c r="C3" t="n">
         <v>1</v>
       </c>
-      <c r="D3" s="2" t="n">
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="E3" s="2" t="n">
         <v>45423</v>
       </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="inlineStr"/>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
       <c r="G3" t="inlineStr"/>
-      <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -545,18 +560,23 @@
       <c r="C4" t="n">
         <v>1</v>
       </c>
-      <c r="D4" s="2" t="n">
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="n">
         <v>45423</v>
       </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="inlineStr"/>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
       <c r="G4" t="inlineStr"/>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" s="2" t="n">
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" s="2" t="n">
         <v>45434</v>
       </c>
     </row>
@@ -570,18 +590,23 @@
       <c r="C5" t="n">
         <v>1</v>
       </c>
-      <c r="D5" s="2" t="n">
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="n">
         <v>45423</v>
       </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="inlineStr"/>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
       <c r="G5" t="inlineStr"/>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -593,18 +618,23 @@
       <c r="C6" t="n">
         <v>1</v>
       </c>
-      <c r="D6" s="2" t="n">
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>s</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="n">
         <v>45423</v>
       </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="inlineStr"/>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
       <c r="G6" t="inlineStr"/>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -616,18 +646,23 @@
       <c r="C7" t="n">
         <v>1</v>
       </c>
-      <c r="D7" s="2" t="n">
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>ef</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="n">
         <v>45423</v>
       </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="inlineStr"/>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
       <c r="G7" t="inlineStr"/>
-      <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -639,18 +674,23 @@
       <c r="C8" t="n">
         <v>1</v>
       </c>
-      <c r="D8" s="2" t="n">
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>w</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="n">
         <v>45423</v>
       </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="inlineStr"/>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
       <c r="G8" t="inlineStr"/>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -662,12 +702,14 @@
       <c r="C9" t="n">
         <v>1</v>
       </c>
-      <c r="D9" s="2" t="n">
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>g</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="n">
         <v>45423</v>
       </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
@@ -675,9 +717,12 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -689,24 +734,29 @@
       <c r="C10" t="n">
         <v>1</v>
       </c>
-      <c r="D10" s="2" t="n">
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>r</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="n">
         <v>45423</v>
       </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr">
         <is>
           <t>No pagado</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -718,24 +768,29 @@
       <c r="C11" t="n">
         <v>1</v>
       </c>
-      <c r="D11" s="2" t="n">
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>ge</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="n">
         <v>45423</v>
       </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr">
         <is>
           <t>No pagado</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -747,12 +802,14 @@
       <c r="C12" t="n">
         <v>1</v>
       </c>
-      <c r="D12" s="2" t="n">
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>rg</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="n">
         <v>45423</v>
       </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
@@ -760,9 +817,12 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -774,24 +834,29 @@
       <c r="C13" t="n">
         <v>1</v>
       </c>
-      <c r="D13" s="2" t="n">
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>erg</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="n">
         <v>45423</v>
       </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr">
         <is>
           <t>No pagado</t>
         </is>
       </c>
-      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -803,22 +868,27 @@
       <c r="C14" t="n">
         <v>1</v>
       </c>
-      <c r="D14" s="2" t="n">
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>e</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="n">
         <v>45423</v>
       </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
-      <c r="H14" t="b">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="b">
+        <v>0</v>
+      </c>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -830,12 +900,14 @@
       <c r="C15" t="n">
         <v>1</v>
       </c>
-      <c r="D15" s="2" t="n">
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>rg</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="n">
         <v>45427</v>
       </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
@@ -843,9 +915,12 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>1</v>
+      </c>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -857,11 +932,13 @@
       <c r="C16" t="n">
         <v>1</v>
       </c>
-      <c r="D16" s="2" t="n">
-        <v>45428</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0</v>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>eg</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="n">
+        <v>45428</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -870,9 +947,12 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>1</v>
+      </c>
+      <c r="J16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -884,11 +964,13 @@
       <c r="C17" t="n">
         <v>1</v>
       </c>
-      <c r="D17" s="2" t="n">
-        <v>45428</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0</v>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>erg</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="n">
+        <v>45428</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -897,9 +979,12 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>1</v>
+      </c>
+      <c r="J17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -911,11 +996,13 @@
       <c r="C18" t="n">
         <v>1</v>
       </c>
-      <c r="D18" s="2" t="n">
-        <v>45428</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0</v>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>g</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="n">
+        <v>45428</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -924,9 +1011,12 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>1</v>
+      </c>
+      <c r="J18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -938,11 +1028,13 @@
       <c r="C19" t="n">
         <v>3</v>
       </c>
-      <c r="D19" s="2" t="n">
-        <v>45428</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0</v>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>erg</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="n">
+        <v>45428</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -951,9 +1043,12 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>1</v>
+      </c>
+      <c r="J19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -965,11 +1060,13 @@
       <c r="C20" t="n">
         <v>7</v>
       </c>
-      <c r="D20" s="2" t="n">
-        <v>45428</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>erg</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="n">
+        <v>45428</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -978,9 +1075,12 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>1</v>
+      </c>
+      <c r="J20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -992,11 +1092,13 @@
       <c r="C21" t="n">
         <v>7</v>
       </c>
-      <c r="D21" s="2" t="n">
-        <v>45428</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0</v>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>g</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="n">
+        <v>45428</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -1005,9 +1107,12 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>1</v>
+      </c>
+      <c r="J21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1019,11 +1124,13 @@
       <c r="C22" t="n">
         <v>7</v>
       </c>
-      <c r="D22" s="3" t="n">
-        <v>45428</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0</v>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>erg</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="n">
+        <v>45428</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -1031,10 +1138,277 @@
       <c r="G22" t="n">
         <v>0</v>
       </c>
-      <c r="H22" t="b">
-        <v>1</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>1</v>
+      </c>
+      <c r="J22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="n">
+        <v>6</v>
+      </c>
+      <c r="C23" t="n">
+        <v>7</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>g</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="n">
+        <v>45428</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>1</v>
+      </c>
+      <c r="J23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="n">
+        <v>1</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>eg</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="n">
+        <v>45428</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>1</v>
+      </c>
+      <c r="J24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="n">
+        <v>1</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>erg</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="n">
+        <v>45428</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>1</v>
+      </c>
+      <c r="J25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="n">
+        <v>4</v>
+      </c>
+      <c r="C26" t="n">
+        <v>1</v>
+      </c>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" s="2" t="n">
+        <v>45428</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>1</v>
+      </c>
+      <c r="J26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="n">
+        <v>4</v>
+      </c>
+      <c r="C27" t="n">
+        <v>1</v>
+      </c>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" s="2" t="n">
+        <v>45428</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>1</v>
+      </c>
+      <c r="J27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="n">
+        <v>4</v>
+      </c>
+      <c r="C28" t="n">
+        <v>1</v>
+      </c>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" s="2" t="n">
+        <v>45428</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>1</v>
+      </c>
+      <c r="J28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="n">
+        <v>4</v>
+      </c>
+      <c r="C29" t="n">
+        <v>1</v>
+      </c>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" s="2" t="n">
+        <v>45428</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>1</v>
+      </c>
+      <c r="J29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="n">
+        <v>4</v>
+      </c>
+      <c r="C30" t="n">
+        <v>1</v>
+      </c>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" s="2" t="n">
+        <v>45428</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>1</v>
+      </c>
+      <c r="J30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="n">
+        <v>4</v>
+      </c>
+      <c r="C31" t="n">
+        <v>1</v>
+      </c>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" s="3" t="n">
+        <v>45428</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="b">
+        <v>1</v>
+      </c>
+      <c r="J31" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/pedidos.xlsx
+++ b/data/pedidos.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:J59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1393,7 +1393,7 @@
         <v>1</v>
       </c>
       <c r="D31" t="inlineStr"/>
-      <c r="E31" s="3" t="n">
+      <c r="E31" s="2" t="n">
         <v>45428</v>
       </c>
       <c r="F31" t="n">
@@ -1405,10 +1405,878 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="b">
+      <c r="I31" t="n">
         <v>1</v>
       </c>
       <c r="J31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="n">
+        <v>1</v>
+      </c>
+      <c r="C32" t="n">
+        <v>1</v>
+      </c>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" s="2" t="n">
+        <v>45428</v>
+      </c>
+      <c r="F32" t="n">
+        <v>22</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>1</v>
+      </c>
+      <c r="J32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="n">
+        <v>1</v>
+      </c>
+      <c r="C33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" s="2" t="n">
+        <v>45428</v>
+      </c>
+      <c r="F33" t="n">
+        <v>2</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
+        <v>1</v>
+      </c>
+      <c r="J33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="n">
+        <v>1</v>
+      </c>
+      <c r="C34" t="n">
+        <v>1</v>
+      </c>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" s="2" t="n">
+        <v>45429</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>1</v>
+      </c>
+      <c r="J34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="n">
+        <v>2</v>
+      </c>
+      <c r="C35" t="n">
+        <v>1</v>
+      </c>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" s="2" t="n">
+        <v>45429</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>1</v>
+      </c>
+      <c r="J35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="n">
+        <v>2</v>
+      </c>
+      <c r="C36" t="n">
+        <v>1</v>
+      </c>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" s="2" t="n">
+        <v>45429</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
+        <v>1</v>
+      </c>
+      <c r="J36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="n">
+        <v>2</v>
+      </c>
+      <c r="C37" t="n">
+        <v>1</v>
+      </c>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" s="2" t="n">
+        <v>45429</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>1</v>
+      </c>
+      <c r="J37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="n">
+        <v>2</v>
+      </c>
+      <c r="C38" t="n">
+        <v>1</v>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>aiaiai</t>
+        </is>
+      </c>
+      <c r="E38" s="2" t="n">
+        <v>45429</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>1</v>
+      </c>
+      <c r="J38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="n">
+        <v>2</v>
+      </c>
+      <c r="C39" t="n">
+        <v>1</v>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>ala</t>
+        </is>
+      </c>
+      <c r="E39" s="2" t="n">
+        <v>45429</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>1</v>
+      </c>
+      <c r="J39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="n">
+        <v>2</v>
+      </c>
+      <c r="C40" t="n">
+        <v>1</v>
+      </c>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" s="2" t="n">
+        <v>45429</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>1</v>
+      </c>
+      <c r="J40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="n">
+        <v>2</v>
+      </c>
+      <c r="C41" t="n">
+        <v>1</v>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>aju</t>
+        </is>
+      </c>
+      <c r="E41" s="2" t="n">
+        <v>45429</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>1</v>
+      </c>
+      <c r="J41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="n">
+        <v>2</v>
+      </c>
+      <c r="C42" t="n">
+        <v>1</v>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>aju</t>
+        </is>
+      </c>
+      <c r="E42" s="2" t="n">
+        <v>45429</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>1</v>
+      </c>
+      <c r="J42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="n">
+        <v>2</v>
+      </c>
+      <c r="C43" t="n">
+        <v>1</v>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>aju</t>
+        </is>
+      </c>
+      <c r="E43" s="2" t="n">
+        <v>45429</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>1</v>
+      </c>
+      <c r="J43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="n">
+        <v>2</v>
+      </c>
+      <c r="C44" t="n">
+        <v>1</v>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>aju</t>
+        </is>
+      </c>
+      <c r="E44" s="2" t="n">
+        <v>45429</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>1</v>
+      </c>
+      <c r="J44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="n">
+        <v>2</v>
+      </c>
+      <c r="C45" t="n">
+        <v>1</v>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>aju</t>
+        </is>
+      </c>
+      <c r="E45" s="2" t="n">
+        <v>45429</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
+        <v>1</v>
+      </c>
+      <c r="J45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="n">
+        <v>2</v>
+      </c>
+      <c r="C46" t="n">
+        <v>1</v>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>aju</t>
+        </is>
+      </c>
+      <c r="E46" s="2" t="n">
+        <v>45429</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>1</v>
+      </c>
+      <c r="J46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="n">
+        <v>2</v>
+      </c>
+      <c r="C47" t="n">
+        <v>1</v>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>aju</t>
+        </is>
+      </c>
+      <c r="E47" s="2" t="n">
+        <v>45429</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>1</v>
+      </c>
+      <c r="J47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="n">
+        <v>2</v>
+      </c>
+      <c r="C48" t="n">
+        <v>1</v>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>aju</t>
+        </is>
+      </c>
+      <c r="E48" s="2" t="n">
+        <v>45429</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>1</v>
+      </c>
+      <c r="J48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="n">
+        <v>2</v>
+      </c>
+      <c r="C49" t="n">
+        <v>1</v>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>aju</t>
+        </is>
+      </c>
+      <c r="E49" s="2" t="n">
+        <v>45429</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
+        <v>1</v>
+      </c>
+      <c r="J49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="n">
+        <v>2</v>
+      </c>
+      <c r="C50" t="n">
+        <v>1</v>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>aju</t>
+        </is>
+      </c>
+      <c r="E50" s="2" t="n">
+        <v>45429</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>1</v>
+      </c>
+      <c r="J50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="n">
+        <v>2</v>
+      </c>
+      <c r="C51" t="n">
+        <v>1</v>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>aju</t>
+        </is>
+      </c>
+      <c r="E51" s="2" t="n">
+        <v>45429</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
+        <v>1</v>
+      </c>
+      <c r="J51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" t="n">
+        <v>2</v>
+      </c>
+      <c r="C52" t="n">
+        <v>1</v>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>aju</t>
+        </is>
+      </c>
+      <c r="E52" s="2" t="n">
+        <v>45429</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>1</v>
+      </c>
+      <c r="J52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" t="n">
+        <v>2</v>
+      </c>
+      <c r="C53" t="n">
+        <v>1</v>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>aju</t>
+        </is>
+      </c>
+      <c r="E53" s="2" t="n">
+        <v>45429</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" t="n">
+        <v>1</v>
+      </c>
+      <c r="J53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" t="n">
+        <v>2</v>
+      </c>
+      <c r="C54" t="n">
+        <v>1</v>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>aju</t>
+        </is>
+      </c>
+      <c r="E54" s="2" t="n">
+        <v>45429</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>1</v>
+      </c>
+      <c r="J54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" t="n">
+        <v>2</v>
+      </c>
+      <c r="C55" t="n">
+        <v>1</v>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>aju</t>
+        </is>
+      </c>
+      <c r="E55" s="2" t="n">
+        <v>45429</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>1</v>
+      </c>
+      <c r="J55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" t="n">
+        <v>2</v>
+      </c>
+      <c r="C56" t="n">
+        <v>1</v>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>aju</t>
+        </is>
+      </c>
+      <c r="E56" s="2" t="n">
+        <v>45429</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
+        <v>1</v>
+      </c>
+      <c r="J56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" t="n">
+        <v>2</v>
+      </c>
+      <c r="C57" t="n">
+        <v>1</v>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>ajo</t>
+        </is>
+      </c>
+      <c r="E57" s="2" t="n">
+        <v>45429</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>1</v>
+      </c>
+      <c r="J57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" t="n">
+        <v>2</v>
+      </c>
+      <c r="C58" t="n">
+        <v>1</v>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>ajo</t>
+        </is>
+      </c>
+      <c r="E58" s="2" t="n">
+        <v>45429</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
+        <v>1</v>
+      </c>
+      <c r="J58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" t="n">
+        <v>2</v>
+      </c>
+      <c r="C59" t="n">
+        <v>1</v>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>ajo</t>
+        </is>
+      </c>
+      <c r="E59" s="3" t="n">
+        <v>45429</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" t="b">
+        <v>1</v>
+      </c>
+      <c r="J59" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/pedidos.xlsx
+++ b/data/pedidos.xlsx
@@ -16,11 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
     <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
-    <numFmt numFmtId="166" formatCode="yyyy-mm-dd"/>
-    <numFmt numFmtId="167" formatCode="YYYY-MM-DD"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -60,13 +58,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -432,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J59"/>
+  <dimension ref="A1:J53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1931,18 +1928,14 @@
         <v>48</v>
       </c>
       <c r="B49" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C49" t="n">
         <v>1</v>
       </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>aju</t>
-        </is>
-      </c>
+      <c r="D49" t="inlineStr"/>
       <c r="E49" s="2" t="n">
-        <v>45429</v>
+        <v>45432</v>
       </c>
       <c r="F49" t="n">
         <v>0</v>
@@ -1963,18 +1956,14 @@
         <v>49</v>
       </c>
       <c r="B50" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C50" t="n">
         <v>1</v>
       </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>aju</t>
-        </is>
-      </c>
+      <c r="D50" t="inlineStr"/>
       <c r="E50" s="2" t="n">
-        <v>45429</v>
+        <v>45432</v>
       </c>
       <c r="F50" t="n">
         <v>0</v>
@@ -1995,18 +1984,14 @@
         <v>50</v>
       </c>
       <c r="B51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C51" t="n">
         <v>1</v>
       </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>aju</t>
-        </is>
-      </c>
+      <c r="D51" t="inlineStr"/>
       <c r="E51" s="2" t="n">
-        <v>45429</v>
+        <v>45432</v>
       </c>
       <c r="F51" t="n">
         <v>0</v>
@@ -2027,18 +2012,14 @@
         <v>51</v>
       </c>
       <c r="B52" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C52" t="n">
         <v>1</v>
       </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>aju</t>
-        </is>
-      </c>
+      <c r="D52" t="inlineStr"/>
       <c r="E52" s="2" t="n">
-        <v>45429</v>
+        <v>45432</v>
       </c>
       <c r="F52" t="n">
         <v>0</v>
@@ -2059,18 +2040,14 @@
         <v>52</v>
       </c>
       <c r="B53" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C53" t="n">
         <v>1</v>
       </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>aju</t>
-        </is>
-      </c>
+      <c r="D53" t="inlineStr"/>
       <c r="E53" s="2" t="n">
-        <v>45429</v>
+        <v>45432</v>
       </c>
       <c r="F53" t="n">
         <v>0</v>
@@ -2085,198 +2062,6 @@
         <v>1</v>
       </c>
       <c r="J53" t="inlineStr"/>
-    </row>
-    <row r="54">
-      <c r="A54" t="n">
-        <v>53</v>
-      </c>
-      <c r="B54" t="n">
-        <v>2</v>
-      </c>
-      <c r="C54" t="n">
-        <v>1</v>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>aju</t>
-        </is>
-      </c>
-      <c r="E54" s="2" t="n">
-        <v>45429</v>
-      </c>
-      <c r="F54" t="n">
-        <v>0</v>
-      </c>
-      <c r="G54" t="n">
-        <v>0</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>1</v>
-      </c>
-      <c r="J54" t="inlineStr"/>
-    </row>
-    <row r="55">
-      <c r="A55" t="n">
-        <v>54</v>
-      </c>
-      <c r="B55" t="n">
-        <v>2</v>
-      </c>
-      <c r="C55" t="n">
-        <v>1</v>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>aju</t>
-        </is>
-      </c>
-      <c r="E55" s="2" t="n">
-        <v>45429</v>
-      </c>
-      <c r="F55" t="n">
-        <v>0</v>
-      </c>
-      <c r="G55" t="n">
-        <v>0</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>1</v>
-      </c>
-      <c r="J55" t="inlineStr"/>
-    </row>
-    <row r="56">
-      <c r="A56" t="n">
-        <v>55</v>
-      </c>
-      <c r="B56" t="n">
-        <v>2</v>
-      </c>
-      <c r="C56" t="n">
-        <v>1</v>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>aju</t>
-        </is>
-      </c>
-      <c r="E56" s="2" t="n">
-        <v>45429</v>
-      </c>
-      <c r="F56" t="n">
-        <v>0</v>
-      </c>
-      <c r="G56" t="n">
-        <v>0</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>1</v>
-      </c>
-      <c r="J56" t="inlineStr"/>
-    </row>
-    <row r="57">
-      <c r="A57" t="n">
-        <v>56</v>
-      </c>
-      <c r="B57" t="n">
-        <v>2</v>
-      </c>
-      <c r="C57" t="n">
-        <v>1</v>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>ajo</t>
-        </is>
-      </c>
-      <c r="E57" s="2" t="n">
-        <v>45429</v>
-      </c>
-      <c r="F57" t="n">
-        <v>0</v>
-      </c>
-      <c r="G57" t="n">
-        <v>0</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>1</v>
-      </c>
-      <c r="J57" t="inlineStr"/>
-    </row>
-    <row r="58">
-      <c r="A58" t="n">
-        <v>57</v>
-      </c>
-      <c r="B58" t="n">
-        <v>2</v>
-      </c>
-      <c r="C58" t="n">
-        <v>1</v>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>ajo</t>
-        </is>
-      </c>
-      <c r="E58" s="2" t="n">
-        <v>45429</v>
-      </c>
-      <c r="F58" t="n">
-        <v>0</v>
-      </c>
-      <c r="G58" t="n">
-        <v>0</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>1</v>
-      </c>
-      <c r="J58" t="inlineStr"/>
-    </row>
-    <row r="59">
-      <c r="A59" t="n">
-        <v>58</v>
-      </c>
-      <c r="B59" t="n">
-        <v>2</v>
-      </c>
-      <c r="C59" t="n">
-        <v>1</v>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>ajo</t>
-        </is>
-      </c>
-      <c r="E59" s="3" t="n">
-        <v>45429</v>
-      </c>
-      <c r="F59" t="n">
-        <v>0</v>
-      </c>
-      <c r="G59" t="n">
-        <v>0</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="b">
-        <v>1</v>
-      </c>
-      <c r="J59" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/pedidos.xlsx
+++ b/data/pedidos.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J53"/>
+  <dimension ref="A1:J52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2035,34 +2035,6 @@
       </c>
       <c r="J52" t="inlineStr"/>
     </row>
-    <row r="53">
-      <c r="A53" t="n">
-        <v>52</v>
-      </c>
-      <c r="B53" t="n">
-        <v>5</v>
-      </c>
-      <c r="C53" t="n">
-        <v>1</v>
-      </c>
-      <c r="D53" t="inlineStr"/>
-      <c r="E53" s="2" t="n">
-        <v>45432</v>
-      </c>
-      <c r="F53" t="n">
-        <v>0</v>
-      </c>
-      <c r="G53" t="n">
-        <v>0</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>1</v>
-      </c>
-      <c r="J53" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/pedidos.xlsx
+++ b/data/pedidos.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J52"/>
+  <dimension ref="A1:J50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1979,62 +1979,6 @@
       </c>
       <c r="J50" t="inlineStr"/>
     </row>
-    <row r="51">
-      <c r="A51" t="n">
-        <v>50</v>
-      </c>
-      <c r="B51" t="n">
-        <v>1</v>
-      </c>
-      <c r="C51" t="n">
-        <v>1</v>
-      </c>
-      <c r="D51" t="inlineStr"/>
-      <c r="E51" s="2" t="n">
-        <v>45432</v>
-      </c>
-      <c r="F51" t="n">
-        <v>0</v>
-      </c>
-      <c r="G51" t="n">
-        <v>0</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>1</v>
-      </c>
-      <c r="J51" t="inlineStr"/>
-    </row>
-    <row r="52">
-      <c r="A52" t="n">
-        <v>51</v>
-      </c>
-      <c r="B52" t="n">
-        <v>5</v>
-      </c>
-      <c r="C52" t="n">
-        <v>1</v>
-      </c>
-      <c r="D52" t="inlineStr"/>
-      <c r="E52" s="2" t="n">
-        <v>45432</v>
-      </c>
-      <c r="F52" t="n">
-        <v>0</v>
-      </c>
-      <c r="G52" t="n">
-        <v>0</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>1</v>
-      </c>
-      <c r="J52" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
